--- a/manipulating-test-cases.xlsx
+++ b/manipulating-test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1st Semester\CPR 101\Final Project\CPR Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD4211-02C2-487A-ACD1-4179E4346CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96AC6E-B7B6-45A1-8B7F-65BDCA49FFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example to be deleted'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1025,27 +1023,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>+ Edge case: Open empty document</t>
+  </si>
+  <si>
+    <t>The documents can be opened, edited, and saved successfully. Verify the contents of the saved file reflect changes made.</t>
+  </si>
+  <si>
+    <t>- Open document over maximum size</t>
+  </si>
+  <si>
+    <t>graceful recovery without excessive data loss.</t>
+  </si>
+  <si>
+    <t>+ Edge case: Open document near maximum size</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>When the document is too big for the system to handle, an error message is shown offering recovery and document closing / saving options.</t>
+  </si>
   <si>
     <t>Program
 or module:</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>Sample Test Cases</t>
+    <t>Version 1</t>
   </si>
   <si>
     <t>Run by:
 Date:</t>
   </si>
   <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>- Open document of average size</t>
+  </si>
+  <si>
+    <t>+ Open documents of different sizes within expected range of normal usage.</t>
+  </si>
+  <si>
+    <t>Empty edit window at start with "empty file" warning. Add data. Verify saved contents reflects additions made.</t>
+  </si>
+  <si>
+    <t>Actual result
+if unexpected</t>
+  </si>
+  <si>
+    <t>Open each file, add a new row or paragraph of content at the beginning, middle, and end of the document. Save the file. 
+Input: small.txt, medium.txt, big.txt</t>
+  </si>
+  <si>
+    <t>Open zero byte size file. Add content and save.  
+Input: empty.txt</t>
+  </si>
+  <si>
+    <t>Open file near maximum size. Add sufficient content to exceed application memory and attempt to save. 
+Input: almost-too-big.txt</t>
+  </si>
+  <si>
+    <t>Open file near maximum size. Add sufficient content to exceed OS file system's maximum size, and attempt to save. 
+Input: almost-too-big.txt</t>
+  </si>
+  <si>
+    <t>Open documents where size exceeds available memory.  
+Input: huge.txt</t>
+  </si>
+  <si>
+    <t>Open average size document,
+Add enough text to exceed maximum size,
+Save. 
+Input: almost-too-big.txt</t>
+  </si>
+  <si>
+    <t>Recommended fix: Logic should check total size of text as it is being entered during edit. Possible message: "Maximum size reached. No more input can be accepted."</t>
+  </si>
+  <si>
     <t>Tester's Name
 Date</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>BSOD Application memory limit exceeded.
+Recommended fix: Logic should check size of file before loading into memory. Possible message: "Loading this file may exceed available memory. Continue?"</t>
+  </si>
+  <si>
+    <t>Data Input</t>
   </si>
   <si>
     <r>
@@ -1071,205 +1151,172 @@
     </r>
   </si>
   <si>
-    <t>Data Input</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Actual result
-if unexpected</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Description</t>
   </si>
   <si>
     <t xml:space="preserve">editFile()
 </t>
   </si>
   <si>
-    <t>+ Open documents of different sizes within expected range of normal usage.</t>
-  </si>
-  <si>
-    <t>Open each file, add a new row or paragraph of content at the beginning, middle, and end of the document. Save the file. 
-Input: small.txt, medium.txt, big.txt</t>
-  </si>
-  <si>
-    <t>The documents can be opened, edited, and saved successfully. Verify the contents of the saved file reflect changes made.</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">editFile()
 </t>
   </si>
   <si>
-    <t>+ Edge case: Open empty document</t>
-  </si>
-  <si>
-    <t>Open zero byte size file. Add content and save.  
-Input: empty.txt</t>
-  </si>
-  <si>
-    <t>Empty edit window at start with "empty file" warning. Add data. Verify saved contents reflects additions made.</t>
-  </si>
-  <si>
-    <t>+ Edge case: Open document near maximum size</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed application memory and attempt to save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>graceful recovery without excessive data loss.</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed OS file system's maximum size, and attempt to save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>- Open document over maximum size</t>
-  </si>
-  <si>
-    <t>Open documents where size exceeds available memory.  
-Input: huge.txt</t>
-  </si>
-  <si>
-    <t>When the document is too big for the system to handle, an error message is shown offering recovery and document closing / saving options.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>BSOD Application memory limit exceeded.
-Recommended fix: Logic should check size of file before loading into memory. Possible message: "Loading this file may exceed available memory. Continue?"</t>
-  </si>
-  <si>
-    <t>- Open document of average size</t>
-  </si>
-  <si>
-    <t>Open average size document,
-Add enough text to exceed maximum size,
-Save. 
-Input: almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>Recommended fix: Logic should check total size of text as it is being entered during edit. Possible message: "Maximum size reached. No more input can be accepted."</t>
-  </si>
-  <si>
-    <t>Manipulation</t>
-  </si>
-  <si>
-    <t>Version 1</t>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Sample Test Cases</t>
   </si>
   <si>
     <t>Om Patel
 30/11/2022</t>
   </si>
   <si>
-    <t>When do-while iteration construct is True</t>
+    <t>Manipulation</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test is passed</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>*** End of Concatenating strings Demo ***</t>
+  </si>
+  <si>
+    <t>when do-while condition evaluates to False</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing when one string is EMPTY and other string in normal range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing when one string is a whitespace and other string in normal range </t>
+  </si>
+  <si>
+    <t>Testing when user enters 'q' to quit</t>
+  </si>
+  <si>
+    <t>omabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>om, abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyza</t>
   </si>
   <si>
     <t>Testing when one string is in normal range and other is of maximum range.</t>
-  </si>
-  <si>
-    <t>om, abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyza</t>
-  </si>
-  <si>
-    <t>omabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Test is passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing when one string is EMPTY and other string in normal range </t>
-  </si>
-  <si>
-    <t>\n, CPA</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing when one string is a whitespace and other string in normal range </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> empty</t>
-  </si>
-  <si>
-    <t>when do-while condition evaluates to False</t>
-  </si>
-  <si>
-    <t>Testing when user enters 'q' to quit</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>*** End of Concatenating strings Demo ***</t>
-  </si>
-  <si>
-    <t>Version 2</t>
   </si>
   <si>
     <t>Om Patel
 07/12/2022</t>
   </si>
   <si>
+    <t>When do-while iteration construct is True</t>
+  </si>
+  <si>
     <t>Testing when one string is empty and other is of normal range.</t>
   </si>
   <si>
+    <t>' string is less than 'programmer'</t>
+  </si>
+  <si>
+    <t>When do-while iteration construct evaluates to False</t>
+  </si>
+  <si>
     <t>, programmer</t>
   </si>
   <si>
-    <t>' string is less than 'programmer'</t>
+    <t xml:space="preserve">computers, </t>
+  </si>
+  <si>
+    <t>computers' string is greater than ' '</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz' string is less than 'alphabets'</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz, alphabets</t>
+  </si>
+  <si>
+    <t>*** End of Comparing strings Demo ***</t>
   </si>
   <si>
     <t>Testing when one string is normal range and other is empty string.</t>
   </si>
   <si>
-    <t xml:space="preserve">computers, </t>
-  </si>
-  <si>
-    <t>computers' string is greater than ' '</t>
-  </si>
-  <si>
     <t>Testing when one string is maximum range and other string is in normal range</t>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz, alphabets</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz' string is less than 'alphabets'</t>
-  </si>
-  <si>
-    <t>When do-while iteration construct evaluates to False</t>
-  </si>
-  <si>
     <t>Testing when user press q</t>
   </si>
   <si>
-    <t>*** End of Comparing strings Demo ***</t>
-  </si>
-  <si>
-    <t>Version 3</t>
+    <t xml:space="preserve"> Om Patel 
+12/12/2022 </t>
+  </si>
+  <si>
+    <t>Testing when second string is a substring of first string</t>
+  </si>
+  <si>
+    <t>Testing when second string is not a substring of first string</t>
+  </si>
+  <si>
+    <t>Testing when both string are empty strings.</t>
+  </si>
+  <si>
+    <t>Testing when first string is of maximum length.</t>
+  </si>
+  <si>
+    <t>om' found at '0' position</t>
+  </si>
+  <si>
+    <t>programming, code</t>
+  </si>
+  <si>
+    <t>ompatel, om</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>\n, \n</t>
+  </si>
+  <si>
+    <t>\n, CPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">' found at '0' position </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>This happens because if nothing is entered, the string automatically matches the '\0' character present at the end of each string.</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz, wxyz</t>
+  </si>
+  <si>
+    <t>wxyz' found at '22' position</t>
+  </si>
+  <si>
+    <t>*** End of Search strings Demo ***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1762,26 +1809,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2123,191 +2170,191 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="27.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="str">
+        <v>34</v>
+      </c>
+      <c r="C1" s="41" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="31"/>
       <c r="F2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="52.9">
+    <row r="5" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="66">
+    <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="66">
+    <row r="7" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="92.45">
+    <row r="8" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="79.150000000000006">
+    <row r="9" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2345,76 +2392,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1">
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="43" t="str">
+        <v>37</v>
+      </c>
+      <c r="C1" s="41" t="str">
         <f>"Save As" &amp; B1 &amp; "_test_cases.xlsx"</f>
         <v>Save AsManipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="23"/>
@@ -2423,91 +2470,91 @@
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="1:7" ht="52.9">
+    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="52.9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52.9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="52.9">
-      <c r="A8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
@@ -2516,77 +2563,77 @@
       <c r="F9" s="25"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1">
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="E12" s="3"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="39.6">
+    <row r="13" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="39.6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -2596,159 +2643,224 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="52.9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="26.45">
-      <c r="A16" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="E17" s="3"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1">
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="E20" s="3"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="F21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="F22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
+      <c r="F24" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
+      <c r="F25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="E26" s="3"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="E27" s="3"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="E28" s="3"/>
@@ -2776,15 +2888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EEBC3F65A651B1459AB5AB90AEA909E9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d8a047d7c98efccd97a0dbd2f09f18d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="168b1131-499a-4d9c-b7a6-eed7c13a0eb7" xmlns:ns3="ae34d4cc-e2bc-471b-8383-222203d71c04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f503e00d73f079894179059ddc44870" ns2:_="" ns3:_="">
     <xsd:import namespace="168b1131-499a-4d9c-b7a6-eed7c13a0eb7"/>
@@ -2977,6 +3080,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2988,13 +3100,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FB84E1B-DEAE-4CBA-A4DA-563245F126A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB8283-EFD4-4425-8E82-E8377FD569E3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D109A1D1-741F-4269-B82B-0A00F6759A0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7972FD6C-5ECE-45C7-B18A-2CD74E48400B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A6FEE4-ED8C-4009-B800-16E8CC544477}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB656CF-0D16-4F32-9AE0-EA915400A6EF}"/>
 </file>